--- a/DragPrediction/NL2VP DragX/0.75T/n/9/test.xlsx
+++ b/DragPrediction/NL2VP DragX/0.75T/n/9/test.xlsx
@@ -350,8 +350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -370,7 +370,7 @@
         <v>3</v>
       </c>
       <c r="E1">
-        <v>8.1675991735537194E-3</v>
+        <v>9.8827949999999998E-3</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -388,11 +388,11 @@
       </c>
       <c r="E2">
         <f>A2*$E$1</f>
-        <v>0.53403803908005376</v>
+        <v>0.64618602728686492</v>
       </c>
       <c r="F2">
         <f>SUM(E2:E137)</f>
-        <v>10.712406953191325</v>
+        <v>12.962012413361505</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -410,7 +410,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E66" si="0">A3*$E$1</f>
-        <v>0.51895732679280993</v>
+        <v>0.62793836541929993</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -428,7 +428,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.24994475556270249</v>
+        <v>0.30243315423086997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -446,7 +446,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>0.50375369213800414</v>
+        <v>0.60954196748698497</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -464,7 +464,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.26717052442089667</v>
+        <v>0.32327633454928495</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -482,7 +482,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.27560339904800829</v>
+        <v>0.33348011284808998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -500,7 +500,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.49831555759146695</v>
+        <v>0.60296182468567505</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -518,7 +518,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.30991224880683471</v>
+        <v>0.37499382105626999</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -536,7 +536,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.51278552131530997</v>
+        <v>0.620470480791525</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -554,7 +554,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.34764610777069838</v>
+        <v>0.42065179040254497</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -572,7 +572,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.13473078841353719</v>
+        <v>0.16302425398038001</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -590,7 +590,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.14044809966742561</v>
+        <v>0.169942200597585</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -608,7 +608,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.41431551634909092</v>
+        <v>0.50132177478240003</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -626,7 +626,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.16141964385300001</v>
+        <v>0.19531776906213</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -644,7 +644,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>0.36972069439226035</v>
+        <v>0.44736204021463499</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -662,7 +662,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.15980530970874796</v>
+        <v>0.193364424747585</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -680,7 +680,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>0.35655587217835538</v>
+        <v>0.43143260533581002</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -698,7 +698,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.30436577922485947</v>
+        <v>0.36828259286207998</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -716,7 +716,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.12765241209816944</v>
+        <v>0.15445941863878498</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -734,7 +734,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>-3.520001650465289E-2</v>
+        <v>-4.2592019970629995E-2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -752,7 +752,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>-2.7989235239082644E-2</v>
+        <v>-3.3866974639289997E-2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -770,7 +770,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>0.1954493169044752</v>
+        <v>0.23649367345441499</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -788,7 +788,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="0"/>
-        <v>7.2274006963685952E-2</v>
+        <v>8.7451548426059997E-2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -806,7 +806,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>-3.0465112246958678E-2</v>
+        <v>-3.686278581882E-2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -824,7 +824,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
-        <v>0.12775256319923553</v>
+        <v>0.154580601471075</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -842,7 +842,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
-        <v>-2.9468803996971077E-2</v>
+        <v>-3.5657252836335002E-2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -860,7 +860,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
-        <v>0.10998350197921489</v>
+        <v>0.13308003739485</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -878,7 +878,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
-        <v>3.1676261025607444E-2</v>
+        <v>3.8328275840984999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -896,7 +896,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>-4.2792698372380165E-2</v>
+        <v>-5.1779165030579999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -914,7 +914,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>1.5980316163016529E-3</v>
+        <v>1.933618255725E-3</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -932,7 +932,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
-        <v>5.5468469250570251E-2</v>
+        <v>6.7116847793189993E-2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,7 +950,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
-        <v>-2.9367852471185951E-2</v>
+        <v>-3.5535101490135002E-2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -968,7 +968,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
-        <v>-3.113510040716529E-2</v>
+        <v>-3.7673471492669995E-2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -986,7 +986,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>-3.1490088770045457E-2</v>
+        <v>-3.8103007411754999E-2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="0"/>
-        <v>-4.6219259421260331E-2</v>
+        <v>-5.5925303899724998E-2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1022,7 +1022,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="0"/>
-        <v>-3.2299105803384298E-2</v>
+        <v>-3.9081918022095E-2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>-5.365530307203719E-2</v>
+        <v>-6.4922916717165005E-2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>-2.0663666534727274E-2</v>
+        <v>-2.5003036507019998E-2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1076,7 +1076,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>-1.2388785946028926E-2</v>
+        <v>-1.4990430994694999E-2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>-1.4687115683070249E-2</v>
+        <v>-1.7771409976514999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="0"/>
-        <v>7.6757553356814057E-2</v>
+        <v>9.2876639561745009E-2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="0"/>
-        <v>7.6905664600227283E-2</v>
+        <v>9.3055854166275001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1148,7 +1148,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="0"/>
-        <v>8.1512835774446291E-2</v>
+        <v>9.8630531287080006E-2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1166,7 +1166,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="0"/>
-        <v>8.7143635817888435E-2</v>
+        <v>0.105443799339645</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="0"/>
-        <v>8.9070666496500001E-2</v>
+        <v>0.107775506460765</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="0"/>
-        <v>7.7173055461971091E-2</v>
+        <v>9.3379397108985004E-2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="0"/>
-        <v>5.1212496673214883E-2</v>
+        <v>6.196712097459E-2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="0"/>
-        <v>-3.5473377881392563E-2</v>
+        <v>-4.2922787236484995E-2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="0"/>
-        <v>-5.7448278955041327E-3</v>
+        <v>-6.9512417535599995E-3</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="0"/>
-        <v>-4.1556417891074381E-3</v>
+        <v>-5.0283265648200003E-3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="0"/>
-        <v>-4.4577776177355376E-3</v>
+        <v>-5.3939109174600004E-3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1310,7 +1310,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="0"/>
-        <v>-1.1295879500615703E-2</v>
+        <v>-1.3668014195744999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1328,7 +1328,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="0"/>
-        <v>-1.7817021362367767E-2</v>
+        <v>-2.1558595848464996E-2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="0"/>
-        <v>-3.1963940203698346E-2</v>
+        <v>-3.8676367646474995E-2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="0"/>
-        <v>-4.1507028418871904E-2</v>
+        <v>-5.0223504386834997E-2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1382,7 +1382,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="0"/>
-        <v>-6.5485980631338842E-2</v>
+        <v>-7.9238036563919992E-2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="0"/>
-        <v>-6.5525160604574376E-2</v>
+        <v>-7.928544433153499E-2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="0"/>
-        <v>-6.8334904563867774E-2</v>
+        <v>-8.2685234522279993E-2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="0"/>
-        <v>-6.9911169528371897E-2</v>
+        <v>-8.4592515129329998E-2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="0"/>
-        <v>-7.3404198499326445E-2</v>
+        <v>-8.8819080184184995E-2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="0"/>
-        <v>-7.8465030802041327E-2</v>
+        <v>-9.4942687270470005E-2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="0"/>
-        <v>-0.1432826159550124</v>
+        <v>-0.17337196530556501</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="0"/>
-        <v>-0.10094165115772315</v>
+        <v>-0.12213939790084499</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="0"/>
-        <v>-0.10103784097319009</v>
+        <v>-0.12225578757756</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="0"/>
-        <v>-9.47438237092562E-2</v>
+        <v>-0.11464002668819999</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1562,7 +1562,7 @@
       </c>
       <c r="E67">
         <f t="shared" ref="E67:E130" si="1">A67*$E$1</f>
-        <v>-8.80594442104215E-2</v>
+        <v>-0.10655192749461</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="1"/>
-        <v>-7.8792183986938019E-2</v>
+        <v>-9.5338542624195E-2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="1"/>
-        <v>-5.8632466488818182E-2</v>
+        <v>-7.0945284451469998E-2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1616,7 +1616,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="1"/>
-        <v>1.7671597259082645E-2</v>
+        <v>2.1382632683489999E-2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1634,7 +1634,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="1"/>
-        <v>2.558250512580992E-2</v>
+        <v>3.0954831202230002E-2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="1"/>
-        <v>1.8170188350632232E-2</v>
+        <v>2.1985927904265002E-2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="1"/>
-        <v>1.810135182479752E-2</v>
+        <v>2.1902635708004999E-2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="1"/>
-        <v>1.7143333279735537E-2</v>
+        <v>2.0743433268479997E-2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1706,7 +1706,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="1"/>
-        <v>1.5565402125000001E-2</v>
+        <v>1.883413657125E-2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="1"/>
-        <v>1.5182031354991736E-2</v>
+        <v>1.8370257939539999E-2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="1"/>
-        <v>4.2809131581917362E-2</v>
+        <v>5.1799049214120006E-2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1760,7 +1760,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="1"/>
-        <v>5.0199485682917357E-2</v>
+        <v>6.0741377676329998E-2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1778,7 +1778,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="1"/>
-        <v>3.0429084967004135E-2</v>
+        <v>3.6819192810075001E-2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="1"/>
-        <v>6.9465863853830578E-2</v>
+        <v>8.4053695263134998E-2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="1"/>
-        <v>6.7322612322297526E-2</v>
+        <v>8.1460360909980004E-2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="1"/>
-        <v>2.708216617766529E-2</v>
+        <v>3.2769421074974998E-2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="1"/>
-        <v>7.405160324781819E-2</v>
+        <v>8.9602439929860001E-2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1868,7 +1868,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="1"/>
-        <v>2.4951631598045455E-2</v>
+        <v>3.0191474233634996E-2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1886,7 +1886,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="1"/>
-        <v>7.6205742189049588E-2</v>
+        <v>9.2208948048749989E-2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="1"/>
-        <v>2.4584914562752067E-2</v>
+        <v>2.9747746620929997E-2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1922,7 +1922,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="1"/>
-        <v>7.4658496704409091E-2</v>
+        <v>9.0336781012334999E-2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1940,7 +1940,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="1"/>
-        <v>1.945130895140083E-2</v>
+        <v>2.3536083831195001E-2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="1"/>
-        <v>1.6745987747541324E-2</v>
+        <v>2.0262645174525001E-2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1976,7 +1976,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="1"/>
-        <v>7.8444407614128103E-2</v>
+        <v>9.491773321309499E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1994,7 +1994,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="1"/>
-        <v>-0.14686700769032232</v>
+        <v>-0.17770907930529001</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2012,7 +2012,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="1"/>
-        <v>8.6384424804309926E-2</v>
+        <v>0.10452515401321501</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2030,7 +2030,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="1"/>
-        <v>7.8776110151764459E-2</v>
+        <v>9.5319093283634984E-2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="1"/>
-        <v>8.0417054334123966E-2</v>
+        <v>9.7304635744290005E-2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="1"/>
-        <v>8.0450239289566128E-2</v>
+        <v>9.734478954037501E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2084,7 +2084,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="1"/>
-        <v>8.2272177469611574E-2</v>
+        <v>9.9549334738229994E-2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="1"/>
-        <v>8.3734096045685949E-2</v>
+        <v>0.10131825621528</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="1"/>
-        <v>8.363962142604546E-2</v>
+        <v>0.101203941925515</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="1"/>
-        <v>7.0215592284768591E-2</v>
+        <v>8.4960866664569992E-2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="1"/>
-        <v>8.329872217173967E-2</v>
+        <v>0.10079145382780499</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2174,7 +2174,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="1"/>
-        <v>7.0091060900169436E-2</v>
+        <v>8.481018368920501E-2</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2192,7 +2192,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="1"/>
-        <v>7.5201544038260335E-2</v>
+        <v>9.0993868286294993E-2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2210,7 +2210,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="1"/>
-        <v>0.13283555419850826</v>
+        <v>0.16073102058019501</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="1"/>
-        <v>7.8314893994033061E-2</v>
+        <v>9.476102173277999E-2</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="1"/>
-        <v>7.8826781937037196E-2</v>
+        <v>9.5380406143814989E-2</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="1"/>
-        <v>8.2982195033367762E-2</v>
+        <v>0.100408455990375</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="1"/>
-        <v>7.7741250833677694E-2</v>
+        <v>9.4066913508750002E-2</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="1"/>
-        <v>7.7890407529785127E-2</v>
+        <v>9.4247393111039995E-2</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="1"/>
-        <v>9.0218647063140506E-2</v>
+        <v>0.10916456294640001</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="1"/>
-        <v>0.11845660203225621</v>
+        <v>0.14333248845903002</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="1"/>
-        <v>9.1474652296450423E-2</v>
+        <v>0.110684329278705</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2372,7 +2372,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="1"/>
-        <v>0.12025804770597522</v>
+        <v>0.14551223772423</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2390,7 +2390,7 @@
       </c>
       <c r="E113">
         <f t="shared" si="1"/>
-        <v>0.11630920952794216</v>
+        <v>0.14073414352881</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="1"/>
-        <v>8.7708163937566128E-2</v>
+        <v>0.106126878364455</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="1"/>
-        <v>9.7144493463942161E-2</v>
+        <v>0.11754483709136999</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="1"/>
-        <v>8.4114796010764478E-2</v>
+        <v>0.101778903173025</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="1"/>
-        <v>0.11252697403785125</v>
+        <v>0.13615763858580002</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="1"/>
-        <v>7.9988394226698345E-2</v>
+        <v>9.6785957014304994E-2</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2498,7 +2498,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="1"/>
-        <v>7.7706244503619834E-2</v>
+        <v>9.4024555849379993E-2</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2516,7 +2516,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="1"/>
-        <v>0.10076842454685124</v>
+        <v>0.12192979370168999</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="1"/>
-        <v>0.11064396671878514</v>
+        <v>0.13387919972973</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="1"/>
-        <v>9.5493797168169414E-2</v>
+        <v>0.11554749457348498</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="1"/>
-        <v>9.1749549181834714E-2</v>
+        <v>0.11101695451002</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2588,7 +2588,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="1"/>
-        <v>0.11254355426417356</v>
+        <v>0.13617770065965001</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="1"/>
-        <v>9.0120292833892557E-2</v>
+        <v>0.10904555432900999</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="1"/>
-        <v>0.11477682907379753</v>
+        <v>0.13887996317929499</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2642,7 +2642,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="1"/>
-        <v>0.11748501710496695</v>
+        <v>0.14215687069701</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2660,7 +2660,7 @@
       </c>
       <c r="E128">
         <f t="shared" si="1"/>
-        <v>0.11268155401980992</v>
+        <v>0.13634468036396999</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2678,7 +2678,7 @@
       </c>
       <c r="E129">
         <f t="shared" si="1"/>
-        <v>0.11187662078605785</v>
+        <v>0.13537071115113</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2696,7 +2696,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="1"/>
-        <v>0.11030597512978513</v>
+        <v>0.13347022990703999</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2714,7 +2714,7 @@
       </c>
       <c r="E131">
         <f t="shared" ref="E131:E137" si="2">A131*$E$1</f>
-        <v>0.11686436941136777</v>
+        <v>0.141405886987755</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="2"/>
-        <v>0.11675337173859918</v>
+        <v>0.141271579803705</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2750,7 +2750,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="2"/>
-        <v>0.11026207428422727</v>
+        <v>0.133417109883915</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="2"/>
-        <v>0.11359600659088018</v>
+        <v>0.13745116797496501</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="2"/>
-        <v>0.1042165480575496</v>
+        <v>0.12610202314963501</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="2"/>
-        <v>0.10198278319197521</v>
+        <v>0.12339916766228999</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="2"/>
-        <v>0.10009119172617768</v>
+        <v>0.12111034198867499</v>
       </c>
     </row>
   </sheetData>
@@ -2830,5 +2830,6 @@
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>